--- a/capiq_data/in_process_data/IQ997111.xlsx
+++ b/capiq_data/in_process_data/IQ997111.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDF04A9-9420-4E69-997E-9979A468BDCC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94796B13-36C6-4F76-B518-788BB7282641}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"48771aa8-59cc-4fde-a815-392422526a28"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"e115301b-0150-494d-8cf4-943d3f9268bc"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$54</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$54</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$54</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$54</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$54</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$54</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$54</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$54</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$54</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$54</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$54</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$54</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$54</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$54</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$54</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$54</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$54</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$54</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$54</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$54</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$54</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$54</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$54</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$54</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$54</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$54</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$54</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,42 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +675,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +769,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>39447</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>32.200000000000003</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>370.2</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>313.3</v>
+        <v>424.2</v>
       </c>
       <c r="F2">
-        <v>116.3</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>896</v>
+        <v>802.7</v>
       </c>
       <c r="H2">
-        <v>2110.6</v>
+        <v>1910.4</v>
       </c>
       <c r="I2">
-        <v>263</v>
+        <v>309.39999999999998</v>
       </c>
       <c r="J2">
-        <v>242.4</v>
+        <v>387.6</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -772,78 +808,78 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>536.79999999999995</v>
+        <v>485.1</v>
       </c>
       <c r="O2">
-        <v>1229.2</v>
+        <v>1116.7</v>
       </c>
       <c r="P2">
-        <v>261</v>
+        <v>405.2</v>
       </c>
       <c r="Q2">
-        <v>9.8000000000000007</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>39447</v>
       </c>
       <c r="S2">
-        <v>10400</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>881.4</v>
+        <v>793.7</v>
       </c>
       <c r="U2">
-        <v>118.9</v>
+        <v>55</v>
       </c>
       <c r="V2">
-        <v>55.9</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>-6.4</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>-24.1</v>
+        <v>0</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>4.5999999999999996</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>32.200000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>39538</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>41</v>
+        <v>7.95</v>
       </c>
       <c r="D3">
-        <v>417.4</v>
+        <v>596.79999999999995</v>
       </c>
       <c r="E3">
-        <v>362</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>127</v>
+        <v>137.05000000000001</v>
       </c>
       <c r="G3">
-        <v>987</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>2205.3000000000002</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>279.3</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>321.2</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -855,37 +891,37 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>555.4</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1283.4000000000001</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>339.8</v>
+        <v>405.2</v>
       </c>
       <c r="Q3">
-        <v>5.3</v>
+        <v>-7.15</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>39538</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>921.9</v>
+        <v>793.7</v>
       </c>
       <c r="U3">
-        <v>124.2</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>-52.2</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="W3">
-        <v>-6.4</v>
+        <v>-4.5999999999999996</v>
       </c>
       <c r="X3">
-        <v>73</v>
+        <v>-10.4</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -894,39 +930,39 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>41</v>
+        <v>7.95</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>39629</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>50.3</v>
+        <v>7.95</v>
       </c>
       <c r="D4">
-        <v>405.3</v>
+        <v>622.1</v>
       </c>
       <c r="E4">
-        <v>327.7</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>111.9</v>
+        <v>141.5</v>
       </c>
       <c r="G4">
-        <v>991.2</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>2143.1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>258.3</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>356.9</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,37 +974,37 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>535.9</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1173.3</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>375.5</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>-16</v>
+        <v>-7.15</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>39629</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>969.8</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>108.2</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>-35</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="W4">
-        <v>-6.5</v>
+        <v>-4.5999999999999996</v>
       </c>
       <c r="X4">
-        <v>29.5</v>
+        <v>-10.4</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -977,39 +1013,39 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>50.3</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>39721</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>182.3</v>
+        <v>5.8</v>
       </c>
       <c r="D5">
-        <v>412</v>
+        <v>602.70000000000005</v>
       </c>
       <c r="E5">
-        <v>369.5</v>
+        <v>432</v>
       </c>
       <c r="F5">
-        <v>118.7</v>
+        <v>123.6</v>
       </c>
       <c r="G5">
-        <v>1227.4000000000001</v>
+        <v>835.7</v>
       </c>
       <c r="H5">
-        <v>2358.6999999999998</v>
+        <v>1920.9</v>
       </c>
       <c r="I5">
-        <v>276.3</v>
+        <v>299.89999999999998</v>
       </c>
       <c r="J5">
-        <v>376.3</v>
+        <v>334.9</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,37 +1057,37 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>619.70000000000005</v>
+        <v>499.7</v>
       </c>
       <c r="O5">
-        <v>1235.2</v>
+        <v>1062.0999999999999</v>
       </c>
       <c r="P5">
-        <v>394.9</v>
+        <v>355.4</v>
       </c>
       <c r="Q5">
-        <v>332.4</v>
+        <v>0.9</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>39721</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>1123.5</v>
+        <v>858.8</v>
       </c>
       <c r="U5">
-        <v>440.6</v>
+        <v>41.6</v>
       </c>
       <c r="V5">
-        <v>17.8</v>
+        <v>54.8</v>
       </c>
       <c r="W5">
-        <v>-7.4</v>
+        <v>-5</v>
       </c>
       <c r="X5">
-        <v>15.6</v>
+        <v>-35</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1060,39 +1096,39 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>182.3</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>39813</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>32.1</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>475.8</v>
+        <v>508.6</v>
       </c>
       <c r="E6">
-        <v>368.4</v>
+        <v>363.5</v>
       </c>
       <c r="F6">
-        <v>155</v>
+        <v>99.7</v>
       </c>
       <c r="G6">
-        <v>1208.7</v>
+        <v>823.5</v>
       </c>
       <c r="H6">
-        <v>2349</v>
+        <v>1928.7</v>
       </c>
       <c r="I6">
-        <v>302.5</v>
+        <v>274.8</v>
       </c>
       <c r="J6">
-        <v>443</v>
+        <v>317.3</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1104,78 +1140,78 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>512.29999999999995</v>
+        <v>515.1</v>
       </c>
       <c r="O6">
-        <v>1263.2</v>
+        <v>1265.5</v>
       </c>
       <c r="P6">
-        <v>461.6</v>
+        <v>336.6</v>
       </c>
       <c r="Q6">
-        <v>22.8</v>
+        <v>-6.3</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>39813</v>
       </c>
       <c r="S6">
-        <v>10600</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>1085.8</v>
+        <v>663.2</v>
       </c>
       <c r="U6">
-        <v>463.4</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="V6">
-        <v>128.1</v>
+        <v>26.3</v>
       </c>
       <c r="W6">
-        <v>-7.4</v>
+        <v>-4.8</v>
       </c>
       <c r="X6">
-        <v>42.1</v>
+        <v>-11.2</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AA6">
-        <v>32.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>39903</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>47.5</v>
+        <v>2.7</v>
       </c>
       <c r="D7">
-        <v>468.6</v>
+        <v>481.6</v>
       </c>
       <c r="E7">
-        <v>386.7</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>149.1</v>
+        <v>101.4</v>
       </c>
       <c r="G7">
-        <v>1106.7</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>2250.1999999999998</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>302.8</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>300.60000000000002</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1184,81 +1220,81 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-143.1</v>
+        <v>-6.5</v>
       </c>
       <c r="N7">
-        <v>502.4</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>1109.5</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>319.2</v>
+        <v>336.6</v>
       </c>
       <c r="Q7">
-        <v>-96.2</v>
+        <v>9.4</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>39903</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>1140.7</v>
+        <v>663.2</v>
       </c>
       <c r="U7">
-        <v>367.2</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>-3.5</v>
+        <v>3.2</v>
       </c>
       <c r="W7">
-        <v>-7.3</v>
+        <v>-3.9</v>
       </c>
       <c r="X7">
-        <v>-141.6</v>
+        <v>16.2</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>47.5</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>39994</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>35</v>
+        <v>21.3</v>
       </c>
       <c r="D8">
-        <v>484.2</v>
+        <v>498.7</v>
       </c>
       <c r="E8">
-        <v>382.7</v>
+        <v>370.6</v>
       </c>
       <c r="F8">
-        <v>160.5</v>
+        <v>122.4</v>
       </c>
       <c r="G8">
-        <v>1053.8</v>
+        <v>717.5</v>
       </c>
       <c r="H8">
-        <v>2191.6</v>
+        <v>1791.8</v>
       </c>
       <c r="I8">
-        <v>278.10000000000002</v>
+        <v>246.1</v>
       </c>
       <c r="J8">
-        <v>266</v>
+        <v>272.3</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,78 +1306,78 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>459.4</v>
+        <v>411.8</v>
       </c>
       <c r="O8">
-        <v>1033.8</v>
+        <v>1088.2</v>
       </c>
       <c r="P8">
-        <v>284.60000000000002</v>
+        <v>294.8</v>
       </c>
       <c r="Q8">
-        <v>-107.6</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>39994</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>1157.8</v>
+        <v>703.6</v>
       </c>
       <c r="U8">
-        <v>259.60000000000002</v>
+        <v>53.5</v>
       </c>
       <c r="V8">
-        <v>7.1</v>
+        <v>87.9</v>
       </c>
       <c r="W8">
-        <v>-7.5</v>
+        <v>-5.7</v>
       </c>
       <c r="X8">
-        <v>-48</v>
+        <v>-71.400000000000006</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>-49.5</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>35</v>
+        <v>21.3</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>40086</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>36.9</v>
+        <v>34.6</v>
       </c>
       <c r="D9">
-        <v>462.2</v>
+        <v>501.5</v>
       </c>
       <c r="E9">
-        <v>369.1</v>
+        <v>367.9</v>
       </c>
       <c r="F9">
-        <v>156.80000000000001</v>
+        <v>138.5</v>
       </c>
       <c r="G9">
-        <v>1088.4000000000001</v>
+        <v>723.1</v>
       </c>
       <c r="H9">
-        <v>2235.3000000000002</v>
+        <v>1792.4</v>
       </c>
       <c r="I9">
-        <v>289.39999999999998</v>
+        <v>287.60000000000002</v>
       </c>
       <c r="J9">
-        <v>261</v>
+        <v>210.7</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,51 +1389,51 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>462.8</v>
+        <v>461.9</v>
       </c>
       <c r="O9">
-        <v>1043.9000000000001</v>
+        <v>1045.3</v>
       </c>
       <c r="P9">
-        <v>279.60000000000002</v>
+        <v>233.1</v>
       </c>
       <c r="Q9">
-        <v>20</v>
+        <v>15.7</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>40086</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>1191.4000000000001</v>
+        <v>747.1</v>
       </c>
       <c r="U9">
-        <v>279.60000000000002</v>
+        <v>69.2</v>
       </c>
       <c r="V9">
-        <v>70.099999999999994</v>
+        <v>93.2</v>
       </c>
       <c r="W9">
-        <v>-9.1999999999999993</v>
+        <v>-5.9</v>
       </c>
       <c r="X9">
-        <v>-13.4</v>
+        <v>-68.3</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>-22.5</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>37</v>
+        <v>34.6</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>40178</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
@@ -1409,22 +1445,22 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>425.4</v>
+        <v>275.60000000000002</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1114.5999999999999</v>
+        <v>740</v>
       </c>
       <c r="H10">
-        <v>2278.8000000000002</v>
+        <v>1974.5</v>
       </c>
       <c r="I10">
-        <v>328.9</v>
+        <v>236.8</v>
       </c>
       <c r="J10">
-        <v>225.1</v>
+        <v>232.1</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,28 +1472,28 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>506.3</v>
+        <v>491.3</v>
       </c>
       <c r="O10">
-        <v>1084.7</v>
+        <v>1184.7</v>
       </c>
       <c r="P10">
-        <v>243.7</v>
+        <v>254.2</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>40178</v>
       </c>
       <c r="S10">
-        <v>10900</v>
+        <v>16000</v>
       </c>
       <c r="T10">
-        <v>1194.0999999999999</v>
+        <v>789.8</v>
       </c>
       <c r="U10">
-        <v>266.89999999999998</v>
+        <v>76.3</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -1480,120 +1516,120 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>40268</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>39</v>
+        <v>30.9</v>
       </c>
       <c r="D11">
-        <v>509.6</v>
+        <v>366.7</v>
       </c>
       <c r="E11">
-        <v>423.7</v>
+        <v>405.7</v>
       </c>
       <c r="F11">
-        <v>179.3</v>
+        <v>108.3</v>
       </c>
       <c r="G11">
-        <v>1105.8</v>
+        <v>805.8</v>
       </c>
       <c r="H11">
-        <v>2267.1</v>
+        <v>1959.2</v>
       </c>
       <c r="I11">
-        <v>306</v>
+        <v>311.5</v>
       </c>
       <c r="J11">
-        <v>210.5</v>
+        <v>116.4</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>149.1</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-15.5</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>477.1</v>
+        <v>632.70000000000005</v>
       </c>
       <c r="O11">
-        <v>1031.4000000000001</v>
+        <v>1138.5999999999999</v>
       </c>
       <c r="P11">
-        <v>229.1</v>
+        <v>286.60000000000002</v>
       </c>
       <c r="Q11">
-        <v>40</v>
+        <v>3.5</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>40268</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>1235.7</v>
+        <v>820.6</v>
       </c>
       <c r="U11">
-        <v>306.89999999999998</v>
+        <v>79.8</v>
       </c>
       <c r="V11">
-        <v>33.299999999999997</v>
+        <v>-14.4</v>
       </c>
       <c r="W11">
-        <v>-9.4</v>
+        <v>-5.9</v>
       </c>
       <c r="X11">
-        <v>-22.6</v>
+        <v>28.2</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>51.3</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>39</v>
+        <v>30.9</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>40359</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>42.1</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="D12">
-        <v>549.1</v>
+        <v>375</v>
       </c>
       <c r="E12">
-        <v>422.6</v>
+        <v>416.5</v>
       </c>
       <c r="F12">
-        <v>198</v>
+        <v>114.2</v>
       </c>
       <c r="G12">
-        <v>1125.5999999999999</v>
+        <v>841.5</v>
       </c>
       <c r="H12">
-        <v>2295.1999999999998</v>
+        <v>1967.2</v>
       </c>
       <c r="I12">
-        <v>315</v>
+        <v>368.7</v>
       </c>
       <c r="J12">
-        <v>200.7</v>
+        <v>99.2</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>124.4</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,81 +1638,81 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>490.1</v>
+        <v>672.7</v>
       </c>
       <c r="O12">
-        <v>1038.7</v>
+        <v>1142.5999999999999</v>
       </c>
       <c r="P12">
-        <v>209.3</v>
+        <v>245.2</v>
       </c>
       <c r="Q12">
-        <v>59.2</v>
+        <v>14.2</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>40359</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>1256.5</v>
+        <v>824.6</v>
       </c>
       <c r="U12">
-        <v>366.1</v>
+        <v>94</v>
       </c>
       <c r="V12">
-        <v>71.7</v>
+        <v>65.099999999999994</v>
       </c>
       <c r="W12">
-        <v>-11.1</v>
+        <v>-6</v>
       </c>
       <c r="X12">
-        <v>-39.4</v>
+        <v>-43.9</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>47.1</v>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <v>42.1</v>
+        <v>16.600000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>40451</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>46.2</v>
+        <v>32</v>
       </c>
       <c r="D13">
-        <v>536.20000000000005</v>
+        <v>377.4</v>
       </c>
       <c r="E13">
-        <v>436</v>
+        <v>422.4</v>
       </c>
       <c r="F13">
-        <v>196.6</v>
+        <v>107.2</v>
       </c>
       <c r="G13">
-        <v>1165</v>
+        <v>876.4</v>
       </c>
       <c r="H13">
-        <v>2348.9</v>
+        <v>2006.6</v>
       </c>
       <c r="I13">
-        <v>344.5</v>
+        <v>337.8</v>
       </c>
       <c r="J13">
-        <v>213.4</v>
+        <v>97.5</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,78 +1721,78 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>535.20000000000005</v>
+        <v>685.8</v>
       </c>
       <c r="O13">
-        <v>1096.3</v>
+        <v>1144.7</v>
       </c>
       <c r="P13">
-        <v>227.8</v>
+        <v>276.8</v>
       </c>
       <c r="Q13">
-        <v>8</v>
+        <v>15.1</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>40451</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>1252.5999999999999</v>
+        <v>861.9</v>
       </c>
       <c r="U13">
-        <v>374.1</v>
+        <v>109.1</v>
       </c>
       <c r="V13">
-        <v>83</v>
+        <v>18.2</v>
       </c>
       <c r="W13">
-        <v>-11.1</v>
+        <v>-6.4</v>
       </c>
       <c r="X13">
-        <v>-43.7</v>
+        <v>24.1</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>-3.8</v>
+        <v>0</v>
       </c>
       <c r="AA13">
-        <v>46.2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>40543</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>42.4</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="D14">
-        <v>558.9</v>
+        <v>370.2</v>
       </c>
       <c r="E14">
-        <v>458.7</v>
+        <v>313.3</v>
       </c>
       <c r="F14">
-        <v>199.9</v>
+        <v>116.3</v>
       </c>
       <c r="G14">
-        <v>1205.5999999999999</v>
+        <v>896</v>
       </c>
       <c r="H14">
-        <v>2391.5</v>
+        <v>2110.6</v>
       </c>
       <c r="I14">
-        <v>387.1</v>
+        <v>263</v>
       </c>
       <c r="J14">
-        <v>177.7</v>
+        <v>242.4</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,78 +1804,78 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>590.9</v>
+        <v>536.79999999999995</v>
       </c>
       <c r="O14">
-        <v>1062.8</v>
+        <v>1229.2</v>
       </c>
       <c r="P14">
-        <v>191.9</v>
+        <v>261</v>
       </c>
       <c r="Q14">
-        <v>6.6</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>40543</v>
       </c>
       <c r="S14">
-        <v>11400</v>
+        <v>10400</v>
       </c>
       <c r="T14">
-        <v>1328.7</v>
+        <v>881.4</v>
       </c>
       <c r="U14">
-        <v>380.7</v>
+        <v>118.9</v>
       </c>
       <c r="V14">
-        <v>91.6</v>
+        <v>55.9</v>
       </c>
       <c r="W14">
-        <v>-11</v>
+        <v>-6.4</v>
       </c>
       <c r="X14">
-        <v>-51.9</v>
+        <v>-24.1</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>-1.1000000000000001</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AA14">
-        <v>42.4</v>
+        <v>32.200000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>40633</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>46.7</v>
+        <v>41</v>
       </c>
       <c r="D15">
-        <v>552.20000000000005</v>
+        <v>417.4</v>
       </c>
       <c r="E15">
-        <v>455.6</v>
+        <v>362</v>
       </c>
       <c r="F15">
-        <v>195.9</v>
+        <v>127</v>
       </c>
       <c r="G15">
-        <v>1198.2</v>
+        <v>987</v>
       </c>
       <c r="H15">
-        <v>2381.1999999999998</v>
+        <v>2205.3000000000002</v>
       </c>
       <c r="I15">
-        <v>341.4</v>
+        <v>279.3</v>
       </c>
       <c r="J15">
-        <v>213</v>
+        <v>321.2</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1851,79 +1887,79 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>536.5</v>
+        <v>555.4</v>
       </c>
       <c r="O15">
-        <v>1037.8</v>
+        <v>1283.4000000000001</v>
       </c>
       <c r="P15">
-        <v>227</v>
+        <v>339.8</v>
       </c>
       <c r="Q15">
-        <v>-10.9</v>
+        <v>5.3</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>40633</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>1343.4</v>
+        <v>921.9</v>
       </c>
       <c r="U15">
-        <v>369.8</v>
+        <v>124.2</v>
       </c>
       <c r="V15">
-        <v>11.8</v>
+        <v>-52.2</v>
       </c>
       <c r="W15">
-        <v>-13.8</v>
+        <v>-6.4</v>
       </c>
       <c r="X15">
-        <v>2.7</v>
+        <v>73</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="AA15">
-        <v>46.7</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>40724</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>57.3</v>
+        <v>50.3</v>
       </c>
       <c r="D16">
-        <v>595.4</v>
+        <v>405.3</v>
       </c>
       <c r="E16">
-        <v>457</v>
+        <v>327.7</v>
       </c>
       <c r="F16">
-        <v>216.2</v>
+        <v>111.9</v>
       </c>
       <c r="G16">
-        <v>1233.9000000000001</v>
+        <v>991.2</v>
       </c>
       <c r="H16">
-        <v>2430.6999999999998</v>
+        <v>2143.1</v>
       </c>
       <c r="I16">
+        <v>258.3</v>
+      </c>
+      <c r="J16">
         <v>356.9</v>
       </c>
-      <c r="J16">
-        <v>236.2</v>
-      </c>
       <c r="K16">
         <v>0</v>
       </c>
@@ -1934,78 +1970,78 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>550</v>
+        <v>535.9</v>
       </c>
       <c r="O16">
-        <v>1074</v>
+        <v>1173.3</v>
       </c>
       <c r="P16">
-        <v>250.4</v>
+        <v>375.5</v>
       </c>
       <c r="Q16">
-        <v>23.9</v>
+        <v>-16</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>40724</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>1356.7</v>
+        <v>969.8</v>
       </c>
       <c r="U16">
-        <v>393.7</v>
+        <v>108.2</v>
       </c>
       <c r="V16">
-        <v>78</v>
+        <v>-35</v>
       </c>
       <c r="W16">
-        <v>-13.6</v>
+        <v>-6.5</v>
       </c>
       <c r="X16">
-        <v>-28.8</v>
+        <v>29.5</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>57.3</v>
+        <v>50.3</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>40816</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>50.6</v>
+        <v>182.3</v>
       </c>
       <c r="D17">
-        <v>581.6</v>
+        <v>412</v>
       </c>
       <c r="E17">
-        <v>474.3</v>
+        <v>369.5</v>
       </c>
       <c r="F17">
-        <v>215.3</v>
+        <v>118.7</v>
       </c>
       <c r="G17">
-        <v>1294.8</v>
+        <v>1227.4000000000001</v>
       </c>
       <c r="H17">
-        <v>2486.8000000000002</v>
+        <v>2358.6999999999998</v>
       </c>
       <c r="I17">
-        <v>374.8</v>
+        <v>276.3</v>
       </c>
       <c r="J17">
-        <v>240.7</v>
+        <v>376.3</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,78 +2053,78 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>587.29999999999995</v>
+        <v>619.70000000000005</v>
       </c>
       <c r="O17">
-        <v>1111.5999999999999</v>
+        <v>1235.2</v>
       </c>
       <c r="P17">
-        <v>254.5</v>
+        <v>394.9</v>
       </c>
       <c r="Q17">
-        <v>6.8</v>
+        <v>332.4</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>40816</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>1375.2</v>
+        <v>1123.5</v>
       </c>
       <c r="U17">
-        <v>400.5</v>
+        <v>440.6</v>
       </c>
       <c r="V17">
-        <v>74</v>
+        <v>17.8</v>
       </c>
       <c r="W17">
-        <v>-13.6</v>
+        <v>-7.4</v>
       </c>
       <c r="X17">
-        <v>-32.5</v>
+        <v>15.6</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>-19.5</v>
+        <v>0</v>
       </c>
       <c r="AA17">
-        <v>50.6</v>
+        <v>182.3</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>40908</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>53.2</v>
+        <v>32.1</v>
       </c>
       <c r="D18">
-        <v>626.79999999999995</v>
+        <v>475.8</v>
       </c>
       <c r="E18">
-        <v>475.4</v>
+        <v>368.4</v>
       </c>
       <c r="F18">
-        <v>231.9</v>
+        <v>155</v>
       </c>
       <c r="G18">
-        <v>1319</v>
+        <v>1208.7</v>
       </c>
       <c r="H18">
-        <v>2515.3000000000002</v>
+        <v>2349</v>
       </c>
       <c r="I18">
-        <v>393.8</v>
+        <v>302.5</v>
       </c>
       <c r="J18">
-        <v>210.1</v>
+        <v>443</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,78 +2136,78 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>605.20000000000005</v>
+        <v>512.29999999999995</v>
       </c>
       <c r="O18">
-        <v>1134</v>
+        <v>1263.2</v>
       </c>
       <c r="P18">
-        <v>223.8</v>
+        <v>461.6</v>
       </c>
       <c r="Q18">
-        <v>-81.099999999999994</v>
+        <v>22.8</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>40908</v>
       </c>
       <c r="S18">
-        <v>12400</v>
+        <v>10600</v>
       </c>
       <c r="T18">
-        <v>1381.3</v>
+        <v>1085.8</v>
       </c>
       <c r="U18">
-        <v>319.39999999999998</v>
+        <v>463.4</v>
       </c>
       <c r="V18">
-        <v>100.1</v>
+        <v>128.1</v>
       </c>
       <c r="W18">
-        <v>-13.4</v>
+        <v>-7.4</v>
       </c>
       <c r="X18">
-        <v>-60.6</v>
+        <v>42.1</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>-100.5</v>
+        <v>0</v>
       </c>
       <c r="AA18">
-        <v>53.2</v>
+        <v>32.1</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>40999</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>58.4</v>
+        <v>47.5</v>
       </c>
       <c r="D19">
-        <v>618.5</v>
+        <v>468.6</v>
       </c>
       <c r="E19">
-        <v>495.9</v>
+        <v>386.7</v>
       </c>
       <c r="F19">
-        <v>229.2</v>
+        <v>149.1</v>
       </c>
       <c r="G19">
-        <v>1376.3</v>
+        <v>1106.7</v>
       </c>
       <c r="H19">
-        <v>2565.3000000000002</v>
+        <v>2250.1999999999998</v>
       </c>
       <c r="I19">
-        <v>368.4</v>
+        <v>302.8</v>
       </c>
       <c r="J19">
-        <v>255.3</v>
+        <v>300.60000000000002</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2180,81 +2216,81 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>-143.1</v>
       </c>
       <c r="N19">
-        <v>595.79999999999995</v>
+        <v>502.4</v>
       </c>
       <c r="O19">
-        <v>1160.2</v>
+        <v>1109.5</v>
       </c>
       <c r="P19">
-        <v>303.89999999999998</v>
+        <v>319.2</v>
       </c>
       <c r="Q19">
-        <v>-35.299999999999997</v>
+        <v>-96.2</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>40999</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>1405.1</v>
+        <v>1140.7</v>
       </c>
       <c r="U19">
-        <v>284.10000000000002</v>
+        <v>367.2</v>
       </c>
       <c r="V19">
-        <v>-0.4</v>
+        <v>-3.5</v>
       </c>
       <c r="W19">
-        <v>-17.100000000000001</v>
+        <v>-7.3</v>
       </c>
       <c r="X19">
-        <v>47.9</v>
+        <v>-141.6</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>-67.900000000000006</v>
+        <v>62</v>
       </c>
       <c r="AA19">
-        <v>58.4</v>
+        <v>47.5</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>41090</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>71.099999999999994</v>
+        <v>35</v>
       </c>
       <c r="D20">
-        <v>653.5</v>
+        <v>484.2</v>
       </c>
       <c r="E20">
-        <v>528.5</v>
+        <v>382.7</v>
       </c>
       <c r="F20">
-        <v>262.39999999999998</v>
+        <v>160.5</v>
       </c>
       <c r="G20">
-        <v>1400</v>
+        <v>1053.8</v>
       </c>
       <c r="H20">
-        <v>2589.8000000000002</v>
+        <v>2191.6</v>
       </c>
       <c r="I20">
-        <v>369.2</v>
+        <v>278.10000000000002</v>
       </c>
       <c r="J20">
-        <v>266.2</v>
+        <v>266</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,78 +2302,78 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>579.1</v>
+        <v>459.4</v>
       </c>
       <c r="O20">
-        <v>1153.3</v>
+        <v>1033.8</v>
       </c>
       <c r="P20">
-        <v>279.60000000000002</v>
+        <v>284.60000000000002</v>
       </c>
       <c r="Q20">
-        <v>-36</v>
+        <v>-107.6</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>41090</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>1436.5</v>
+        <v>1157.8</v>
       </c>
       <c r="U20">
-        <v>248.1</v>
+        <v>259.60000000000002</v>
       </c>
       <c r="V20">
-        <v>61.6</v>
+        <v>7.1</v>
       </c>
       <c r="W20">
-        <v>-16.899999999999999</v>
+        <v>-7.5</v>
       </c>
       <c r="X20">
-        <v>-67.8</v>
+        <v>-48</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>-13.7</v>
+        <v>-49.5</v>
       </c>
       <c r="AA20">
-        <v>71.099999999999994</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>41182</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>73.599999999999994</v>
+        <v>36.9</v>
       </c>
       <c r="D21">
-        <v>625.1</v>
+        <v>462.2</v>
       </c>
       <c r="E21">
-        <v>479</v>
+        <v>369.1</v>
       </c>
       <c r="F21">
-        <v>255.6</v>
+        <v>156.80000000000001</v>
       </c>
       <c r="G21">
-        <v>1413.8</v>
+        <v>1088.4000000000001</v>
       </c>
       <c r="H21">
-        <v>2600.1999999999998</v>
+        <v>2235.3000000000002</v>
       </c>
       <c r="I21">
-        <v>395.8</v>
+        <v>289.39999999999998</v>
       </c>
       <c r="J21">
-        <v>247.7</v>
+        <v>261</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,78 +2385,78 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>624.1</v>
+        <v>462.8</v>
       </c>
       <c r="O21">
-        <v>1177.8</v>
+        <v>1043.9000000000001</v>
       </c>
       <c r="P21">
-        <v>260.8</v>
+        <v>279.60000000000002</v>
       </c>
       <c r="Q21">
-        <v>34.799999999999997</v>
+        <v>20</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>41182</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>1422.4</v>
+        <v>1191.4000000000001</v>
       </c>
       <c r="U21">
-        <v>282.89999999999998</v>
+        <v>279.60000000000002</v>
       </c>
       <c r="V21">
-        <v>175.9</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="W21">
-        <v>-16.899999999999999</v>
+        <v>-9.1999999999999993</v>
       </c>
       <c r="X21">
-        <v>-92.2</v>
+        <v>-13.4</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>-26.8</v>
+        <v>-22.5</v>
       </c>
       <c r="AA21">
-        <v>73.599999999999994</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>41274</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>79.8</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>639.4</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>501.4</v>
+        <v>425.4</v>
       </c>
       <c r="F22">
-        <v>262.60000000000002</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>1403.3</v>
+        <v>1114.5999999999999</v>
       </c>
       <c r="H22">
-        <v>2629.2</v>
+        <v>2278.8000000000002</v>
       </c>
       <c r="I22">
-        <v>424.9</v>
+        <v>328.9</v>
       </c>
       <c r="J22">
-        <v>236.1</v>
+        <v>225.1</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,78 +2468,78 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>653.20000000000005</v>
+        <v>506.3</v>
       </c>
       <c r="O22">
-        <v>1186.9000000000001</v>
+        <v>1084.7</v>
       </c>
       <c r="P22">
-        <v>249</v>
+        <v>243.7</v>
       </c>
       <c r="Q22">
-        <v>40.700000000000003</v>
+        <v>0</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>41274</v>
       </c>
       <c r="S22">
-        <v>13400</v>
+        <v>10900</v>
       </c>
       <c r="T22">
-        <v>1442.3</v>
+        <v>1194.0999999999999</v>
       </c>
       <c r="U22">
-        <v>323.60000000000002</v>
+        <v>266.89999999999998</v>
       </c>
       <c r="V22">
-        <v>114.6</v>
+        <v>0</v>
       </c>
       <c r="W22">
-        <v>-16.899999999999999</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>-49.3</v>
+        <v>0</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>79.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>41364</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>73.5</v>
+        <v>39</v>
       </c>
       <c r="D23">
-        <v>636.9</v>
+        <v>509.6</v>
       </c>
       <c r="E23">
-        <v>506.9</v>
+        <v>423.7</v>
       </c>
       <c r="F23">
-        <v>262.7</v>
+        <v>179.3</v>
       </c>
       <c r="G23">
-        <v>1425.9</v>
+        <v>1105.8</v>
       </c>
       <c r="H23">
-        <v>2650.6</v>
+        <v>2267.1</v>
       </c>
       <c r="I23">
-        <v>389</v>
+        <v>306</v>
       </c>
       <c r="J23">
-        <v>274.10000000000002</v>
+        <v>210.5</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2512,81 +2548,81 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>-15.5</v>
       </c>
       <c r="N23">
-        <v>602</v>
+        <v>477.1</v>
       </c>
       <c r="O23">
-        <v>1172.0999999999999</v>
+        <v>1031.4000000000001</v>
       </c>
       <c r="P23">
-        <v>287.3</v>
+        <v>229.1</v>
       </c>
       <c r="Q23">
-        <v>-18.100000000000001</v>
+        <v>40</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>41364</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>1478.5</v>
+        <v>1235.7</v>
       </c>
       <c r="U23">
-        <v>305.5</v>
+        <v>306.89999999999998</v>
       </c>
       <c r="V23">
-        <v>26.5</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="W23">
-        <v>-21.2</v>
+        <v>-9.4</v>
       </c>
       <c r="X23">
-        <v>-14.1</v>
+        <v>-22.6</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>-11.1</v>
+        <v>51.3</v>
       </c>
       <c r="AA23">
-        <v>73.5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>41455</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>87.1</v>
+        <v>42.1</v>
       </c>
       <c r="D24">
-        <v>667</v>
+        <v>549.1</v>
       </c>
       <c r="E24">
-        <v>493.9</v>
+        <v>422.6</v>
       </c>
       <c r="F24">
-        <v>283.7</v>
+        <v>198</v>
       </c>
       <c r="G24">
-        <v>1449</v>
+        <v>1125.5999999999999</v>
       </c>
       <c r="H24">
-        <v>2672.2</v>
+        <v>2295.1999999999998</v>
       </c>
       <c r="I24">
-        <v>402</v>
+        <v>315</v>
       </c>
       <c r="J24">
-        <v>274.60000000000002</v>
+        <v>200.7</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,78 +2634,78 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>615.6</v>
+        <v>490.1</v>
       </c>
       <c r="O24">
-        <v>1191.5</v>
+        <v>1038.7</v>
       </c>
       <c r="P24">
-        <v>282</v>
+        <v>209.3</v>
       </c>
       <c r="Q24">
-        <v>-18.100000000000001</v>
+        <v>59.2</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>41455</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>1480.7</v>
+        <v>1256.5</v>
       </c>
       <c r="U24">
-        <v>287.39999999999998</v>
+        <v>366.1</v>
       </c>
       <c r="V24">
-        <v>128.6</v>
+        <v>71.7</v>
       </c>
       <c r="W24">
-        <v>-21</v>
+        <v>-11.1</v>
       </c>
       <c r="X24">
-        <v>-73.599999999999994</v>
+        <v>-39.4</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>-54.8</v>
+        <v>47.1</v>
       </c>
       <c r="AA24">
-        <v>87.1</v>
+        <v>42.1</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>41547</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>83.2</v>
+        <v>46.2</v>
       </c>
       <c r="D25">
-        <v>683.9</v>
+        <v>536.20000000000005</v>
       </c>
       <c r="E25">
-        <v>517.29999999999995</v>
+        <v>436</v>
       </c>
       <c r="F25">
-        <v>283.3</v>
+        <v>196.6</v>
       </c>
       <c r="G25">
-        <v>1507.6</v>
+        <v>1165</v>
       </c>
       <c r="H25">
-        <v>2824.4</v>
+        <v>2348.9</v>
       </c>
       <c r="I25">
-        <v>455.8</v>
+        <v>344.5</v>
       </c>
       <c r="J25">
-        <v>328.9</v>
+        <v>213.4</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,78 +2717,78 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>682.1</v>
+        <v>535.20000000000005</v>
       </c>
       <c r="O25">
-        <v>1298.8</v>
+        <v>1096.3</v>
       </c>
       <c r="P25">
-        <v>336.2</v>
+        <v>227.8</v>
       </c>
       <c r="Q25">
-        <v>-18.100000000000001</v>
+        <v>8</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>41547</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>1525.6</v>
+        <v>1252.5999999999999</v>
       </c>
       <c r="U25">
-        <v>269.3</v>
+        <v>374.1</v>
       </c>
       <c r="V25">
-        <v>108.5</v>
+        <v>83</v>
       </c>
       <c r="W25">
-        <v>-21</v>
+        <v>-11.1</v>
       </c>
       <c r="X25">
-        <v>16.3</v>
+        <v>-43.7</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>-31.4</v>
+        <v>-3.8</v>
       </c>
       <c r="AA25">
-        <v>83.2</v>
+        <v>46.2</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>41639</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>82.7</v>
+        <v>42.4</v>
       </c>
       <c r="D26">
-        <v>698.1</v>
+        <v>558.9</v>
       </c>
       <c r="E26">
-        <v>518.70000000000005</v>
+        <v>458.7</v>
       </c>
       <c r="F26">
-        <v>289.60000000000002</v>
+        <v>199.9</v>
       </c>
       <c r="G26">
-        <v>1562</v>
+        <v>1205.5999999999999</v>
       </c>
       <c r="H26">
-        <v>2891</v>
+        <v>2391.5</v>
       </c>
       <c r="I26">
-        <v>528.6</v>
+        <v>387.1</v>
       </c>
       <c r="J26">
-        <v>316.39999999999998</v>
+        <v>177.7</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,78 +2800,78 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>765.6</v>
+        <v>590.9</v>
       </c>
       <c r="O26">
-        <v>1375.7</v>
+        <v>1062.8</v>
       </c>
       <c r="P26">
-        <v>323.60000000000002</v>
+        <v>191.9</v>
       </c>
       <c r="Q26">
-        <v>61.1</v>
+        <v>6.6</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>41639</v>
       </c>
       <c r="S26">
-        <v>15500</v>
+        <v>11400</v>
       </c>
       <c r="T26">
-        <v>1515.3</v>
+        <v>1328.7</v>
       </c>
       <c r="U26">
-        <v>330.4</v>
+        <v>380.7</v>
       </c>
       <c r="V26">
-        <v>183</v>
+        <v>91.6</v>
       </c>
       <c r="W26">
-        <v>-21</v>
+        <v>-11</v>
       </c>
       <c r="X26">
-        <v>-68.2</v>
+        <v>-51.9</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>-31.4</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="AA26">
-        <v>82.7</v>
+        <v>42.4</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>41729</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>87.7</v>
+        <v>46.7</v>
       </c>
       <c r="D27">
-        <v>740</v>
+        <v>552.20000000000005</v>
       </c>
       <c r="E27">
-        <v>584.1</v>
+        <v>455.6</v>
       </c>
       <c r="F27">
-        <v>300.89999999999998</v>
+        <v>195.9</v>
       </c>
       <c r="G27">
-        <v>1605.5</v>
+        <v>1198.2</v>
       </c>
       <c r="H27">
-        <v>2940.2</v>
+        <v>2381.1999999999998</v>
       </c>
       <c r="I27">
-        <v>493.5</v>
+        <v>341.4</v>
       </c>
       <c r="J27">
-        <v>362.2</v>
+        <v>213</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2847,78 +2883,78 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>720.5</v>
+        <v>536.5</v>
       </c>
       <c r="O27">
-        <v>1373.8</v>
+        <v>1037.8</v>
       </c>
       <c r="P27">
-        <v>369.4</v>
+        <v>227</v>
       </c>
       <c r="Q27">
-        <v>-37</v>
+        <v>-10.9</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>41729</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>1566.4</v>
+        <v>1343.4</v>
       </c>
       <c r="U27">
-        <v>293.39999999999998</v>
+        <v>369.8</v>
       </c>
       <c r="V27">
-        <v>-11.5</v>
+        <v>11.8</v>
       </c>
       <c r="W27">
-        <v>-24.4</v>
+        <v>-13.8</v>
       </c>
       <c r="X27">
-        <v>-7.6</v>
+        <v>2.7</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>-1.1000000000000001</v>
+        <v>-0.1</v>
       </c>
       <c r="AA27">
-        <v>87.7</v>
+        <v>46.7</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>41820</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>92.4</v>
+        <v>57.3</v>
       </c>
       <c r="D28">
-        <v>738.2</v>
+        <v>595.4</v>
       </c>
       <c r="E28">
-        <v>566.79999999999995</v>
+        <v>457</v>
       </c>
       <c r="F28">
-        <v>304.2</v>
+        <v>216.2</v>
       </c>
       <c r="G28">
-        <v>1640.3</v>
+        <v>1233.9000000000001</v>
       </c>
       <c r="H28">
-        <v>2984</v>
+        <v>2430.6999999999998</v>
       </c>
       <c r="I28">
-        <v>493.1</v>
+        <v>356.9</v>
       </c>
       <c r="J28">
-        <v>367.7</v>
+        <v>236.2</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,78 +2966,78 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>705.8</v>
+        <v>550</v>
       </c>
       <c r="O28">
-        <v>1370.3</v>
+        <v>1074</v>
       </c>
       <c r="P28">
-        <v>375.1</v>
+        <v>250.4</v>
       </c>
       <c r="Q28">
-        <v>13.2</v>
+        <v>23.9</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>41820</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>1613.7</v>
+        <v>1356.7</v>
       </c>
       <c r="U28">
-        <v>306.60000000000002</v>
+        <v>393.7</v>
       </c>
       <c r="V28">
-        <v>84.7</v>
+        <v>78</v>
       </c>
       <c r="W28">
-        <v>-24.2</v>
+        <v>-13.6</v>
       </c>
       <c r="X28">
-        <v>-53.2</v>
+        <v>-28.8</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="AA28">
-        <v>92.4</v>
+        <v>57.3</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>41912</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>93.7</v>
+        <v>50.6</v>
       </c>
       <c r="D29">
-        <v>749.9</v>
+        <v>581.6</v>
       </c>
       <c r="E29">
-        <v>587.1</v>
+        <v>474.3</v>
       </c>
       <c r="F29">
-        <v>305</v>
+        <v>215.3</v>
       </c>
       <c r="G29">
-        <v>1698.1</v>
+        <v>1294.8</v>
       </c>
       <c r="H29">
-        <v>3104.6</v>
+        <v>2486.8000000000002</v>
       </c>
       <c r="I29">
-        <v>500.1</v>
+        <v>374.8</v>
       </c>
       <c r="J29">
-        <v>442.2</v>
+        <v>240.7</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,78 +3049,78 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>731.7</v>
+        <v>587.29999999999995</v>
       </c>
       <c r="O29">
-        <v>1438.7</v>
+        <v>1111.5999999999999</v>
       </c>
       <c r="P29">
-        <v>449.7</v>
+        <v>254.5</v>
       </c>
       <c r="Q29">
-        <v>15.3</v>
+        <v>6.8</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>41912</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>1665.9</v>
+        <v>1375.2</v>
       </c>
       <c r="U29">
-        <v>321.89999999999998</v>
+        <v>400.5</v>
       </c>
       <c r="V29">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="W29">
-        <v>-24.2</v>
+        <v>-13.6</v>
       </c>
       <c r="X29">
-        <v>13.6</v>
+        <v>-32.5</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>-2.1</v>
+        <v>-19.5</v>
       </c>
       <c r="AA29">
-        <v>93.7</v>
+        <v>50.6</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>42004</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>22.7</v>
+        <v>53.2</v>
       </c>
       <c r="D30">
-        <v>768.6</v>
+        <v>626.79999999999995</v>
       </c>
       <c r="E30">
-        <v>592.70000000000005</v>
+        <v>475.4</v>
       </c>
       <c r="F30">
-        <v>322.3</v>
+        <v>231.9</v>
       </c>
       <c r="G30">
-        <v>1766.9</v>
+        <v>1319</v>
       </c>
       <c r="H30">
-        <v>3197.4</v>
+        <v>2515.3000000000002</v>
       </c>
       <c r="I30">
-        <v>535</v>
+        <v>393.8</v>
       </c>
       <c r="J30">
-        <v>402.9</v>
+        <v>210.1</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,78 +3132,78 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>793.8</v>
+        <v>605.20000000000005</v>
       </c>
       <c r="O30">
-        <v>1552.5</v>
+        <v>1134</v>
       </c>
       <c r="P30">
-        <v>410.4</v>
+        <v>223.8</v>
       </c>
       <c r="Q30">
-        <v>24.7</v>
+        <v>-81.099999999999994</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>42004</v>
       </c>
       <c r="S30">
-        <v>16100</v>
+        <v>12400</v>
       </c>
       <c r="T30">
-        <v>1644.9</v>
+        <v>1381.3</v>
       </c>
       <c r="U30">
-        <v>346.6</v>
+        <v>319.39999999999998</v>
       </c>
       <c r="V30">
-        <v>176.2</v>
+        <v>100.1</v>
       </c>
       <c r="W30">
-        <v>-24.1</v>
+        <v>-13.4</v>
       </c>
       <c r="X30">
-        <v>-104.9</v>
+        <v>-60.6</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>-18.8</v>
+        <v>-100.5</v>
       </c>
       <c r="AA30">
-        <v>22.7</v>
+        <v>53.2</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>42094</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>98.8</v>
+        <v>58.4</v>
       </c>
       <c r="D31">
-        <v>788</v>
+        <v>618.5</v>
       </c>
       <c r="E31">
-        <v>638.79999999999995</v>
+        <v>495.9</v>
       </c>
       <c r="F31">
-        <v>321.5</v>
+        <v>229.2</v>
       </c>
       <c r="G31">
-        <v>1669.1</v>
+        <v>1376.3</v>
       </c>
       <c r="H31">
-        <v>3106.9</v>
+        <v>2565.3000000000002</v>
       </c>
       <c r="I31">
-        <v>522.1</v>
+        <v>368.4</v>
       </c>
       <c r="J31">
-        <v>285.8</v>
+        <v>255.3</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3176,81 +3212,81 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-117.3</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>766.9</v>
+        <v>595.79999999999995</v>
       </c>
       <c r="O31">
-        <v>1398.5</v>
+        <v>1160.2</v>
       </c>
       <c r="P31">
-        <v>293.2</v>
+        <v>303.89999999999998</v>
       </c>
       <c r="Q31">
-        <v>-104.7</v>
+        <v>-35.299999999999997</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>42094</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>1708.4</v>
+        <v>1405.1</v>
       </c>
       <c r="U31">
-        <v>241.9</v>
+        <v>284.10000000000002</v>
       </c>
       <c r="V31">
-        <v>43.2</v>
+        <v>-0.4</v>
       </c>
       <c r="W31">
-        <v>-31</v>
+        <v>-17.100000000000001</v>
       </c>
       <c r="X31">
-        <v>-182.8</v>
+        <v>47.9</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>52.2</v>
+        <v>-67.900000000000006</v>
       </c>
       <c r="AA31">
-        <v>98.8</v>
+        <v>58.4</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>42185</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>114.5</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="D32">
-        <v>833.3</v>
+        <v>653.5</v>
       </c>
       <c r="E32">
-        <v>644</v>
+        <v>528.5</v>
       </c>
       <c r="F32">
-        <v>341</v>
+        <v>262.39999999999998</v>
       </c>
       <c r="G32">
-        <v>1653.3</v>
+        <v>1400</v>
       </c>
       <c r="H32">
-        <v>3085.3</v>
+        <v>2589.8000000000002</v>
       </c>
       <c r="I32">
-        <v>532.79999999999995</v>
+        <v>369.2</v>
       </c>
       <c r="J32">
-        <v>245.4</v>
+        <v>266.2</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,78 +3298,78 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>768.7</v>
+        <v>579.1</v>
       </c>
       <c r="O32">
-        <v>1355</v>
+        <v>1153.3</v>
       </c>
       <c r="P32">
+        <v>279.60000000000002</v>
+      </c>
+      <c r="Q32">
+        <v>-36</v>
+      </c>
+      <c r="R32">
+        <v>42185</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>1436.5</v>
+      </c>
+      <c r="U32">
         <v>248.1</v>
       </c>
-      <c r="Q32">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="R32">
-        <v>43281</v>
-      </c>
-      <c r="S32">
-        <v>0</v>
-      </c>
-      <c r="T32">
-        <v>1730.3</v>
-      </c>
-      <c r="U32">
-        <v>260</v>
-      </c>
       <c r="V32">
-        <v>130</v>
+        <v>61.6</v>
       </c>
       <c r="W32">
-        <v>-30.8</v>
+        <v>-16.899999999999999</v>
       </c>
       <c r="X32">
-        <v>-111.1</v>
+        <v>-67.8</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>21.4</v>
+        <v>-13.7</v>
       </c>
       <c r="AA32">
-        <v>114.5</v>
+        <v>71.099999999999994</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>42277</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>104.6</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="D33">
-        <v>754.1</v>
+        <v>625.1</v>
       </c>
       <c r="E33">
-        <v>606.6</v>
+        <v>479</v>
       </c>
       <c r="F33">
-        <v>306</v>
+        <v>255.6</v>
       </c>
       <c r="G33">
-        <v>1598.7</v>
+        <v>1413.8</v>
       </c>
       <c r="H33">
-        <v>3025.2</v>
+        <v>2600.1999999999998</v>
       </c>
       <c r="I33">
-        <v>508</v>
+        <v>395.8</v>
       </c>
       <c r="J33">
-        <v>193.3</v>
+        <v>247.7</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,78 +3381,78 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>738.9</v>
+        <v>624.1</v>
       </c>
       <c r="O33">
-        <v>1269</v>
+        <v>1177.8</v>
       </c>
       <c r="P33">
-        <v>193.3</v>
+        <v>260.8</v>
       </c>
       <c r="Q33">
-        <v>-27</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>42277</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>1756.2</v>
+        <v>1422.4</v>
       </c>
       <c r="U33">
-        <v>233</v>
+        <v>282.89999999999998</v>
       </c>
       <c r="V33">
-        <v>116</v>
+        <v>175.9</v>
       </c>
       <c r="W33">
-        <v>-30.7</v>
+        <v>-16.899999999999999</v>
       </c>
       <c r="X33">
-        <v>-123.3</v>
+        <v>-92.2</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>-0.7</v>
+        <v>-26.8</v>
       </c>
       <c r="AA33">
-        <v>104.6</v>
+        <v>73.599999999999994</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>42369</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>126.3</v>
+        <v>79.8</v>
       </c>
       <c r="D34">
-        <v>812.5</v>
+        <v>639.4</v>
       </c>
       <c r="E34">
-        <v>647.29999999999995</v>
+        <v>501.4</v>
       </c>
       <c r="F34">
-        <v>337</v>
+        <v>262.60000000000002</v>
       </c>
       <c r="G34">
-        <v>1638.5</v>
+        <v>1403.3</v>
       </c>
       <c r="H34">
-        <v>3071.5</v>
+        <v>2629.2</v>
       </c>
       <c r="I34">
-        <v>543.79999999999995</v>
+        <v>424.9</v>
       </c>
       <c r="J34">
-        <v>221.4</v>
+        <v>236.1</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3428,78 +3464,78 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>785.3</v>
+        <v>653.20000000000005</v>
       </c>
       <c r="O34">
-        <v>1354.5</v>
+        <v>1186.9000000000001</v>
       </c>
       <c r="P34">
-        <v>221.4</v>
+        <v>249</v>
       </c>
       <c r="Q34">
-        <v>26.7</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>42369</v>
       </c>
       <c r="S34">
-        <v>16300</v>
+        <v>13400</v>
       </c>
       <c r="T34">
-        <v>1717</v>
+        <v>1442.3</v>
       </c>
       <c r="U34">
-        <v>259.7</v>
+        <v>323.60000000000002</v>
       </c>
       <c r="V34">
-        <v>159.69999999999999</v>
+        <v>114.6</v>
       </c>
       <c r="W34">
-        <v>-37.6</v>
+        <v>-16.899999999999999</v>
       </c>
       <c r="X34">
-        <v>-105.9</v>
+        <v>-49.3</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>-0.4</v>
+        <v>-5</v>
       </c>
       <c r="AA34">
-        <v>126.3</v>
+        <v>79.8</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>42460</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>89.3</v>
+        <v>73.5</v>
       </c>
       <c r="D35">
-        <v>748.2</v>
+        <v>636.9</v>
       </c>
       <c r="E35">
-        <v>658.8</v>
+        <v>506.9</v>
       </c>
       <c r="F35">
-        <v>292.8</v>
+        <v>262.7</v>
       </c>
       <c r="G35">
-        <v>1658.1</v>
+        <v>1425.9</v>
       </c>
       <c r="H35">
-        <v>3143.5</v>
+        <v>2650.6</v>
       </c>
       <c r="I35">
-        <v>492.4</v>
+        <v>389</v>
       </c>
       <c r="J35">
-        <v>277.60000000000002</v>
+        <v>274.10000000000002</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3511,78 +3547,78 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>737.2</v>
+        <v>602</v>
       </c>
       <c r="O35">
-        <v>1394.3</v>
+        <v>1172.0999999999999</v>
       </c>
       <c r="P35">
-        <v>337.8</v>
+        <v>287.3</v>
       </c>
       <c r="Q35">
-        <v>78.099999999999994</v>
+        <v>-18.100000000000001</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>42460</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>1749.2</v>
+        <v>1478.5</v>
       </c>
       <c r="U35">
-        <v>337.8</v>
+        <v>305.5</v>
       </c>
       <c r="V35">
-        <v>21.6</v>
+        <v>26.5</v>
       </c>
       <c r="W35">
-        <v>-37.1</v>
+        <v>-21.2</v>
       </c>
       <c r="X35">
-        <v>-21.3</v>
+        <v>-14.1</v>
       </c>
       <c r="Y35">
-        <v>41.1</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>98.7</v>
+        <v>-11.1</v>
       </c>
       <c r="AA35">
-        <v>89.3</v>
+        <v>73.5</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>42551</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>102.1</v>
+        <v>87.1</v>
       </c>
       <c r="D36">
-        <v>765.4</v>
+        <v>667</v>
       </c>
       <c r="E36">
-        <v>634.79999999999995</v>
+        <v>493.9</v>
       </c>
       <c r="F36">
-        <v>308.7</v>
+        <v>283.7</v>
       </c>
       <c r="G36">
-        <v>1596.6</v>
+        <v>1449</v>
       </c>
       <c r="H36">
-        <v>3175.6</v>
+        <v>2672.2</v>
       </c>
       <c r="I36">
-        <v>488.4</v>
+        <v>402</v>
       </c>
       <c r="J36">
-        <v>351.8</v>
+        <v>274.60000000000002</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3630,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>730.6</v>
+        <v>615.6</v>
       </c>
       <c r="O36">
-        <v>1450.5</v>
+        <v>1191.5</v>
       </c>
       <c r="P36">
-        <v>410.5</v>
+        <v>282</v>
       </c>
       <c r="Q36">
-        <v>-56.2</v>
+        <v>-18.100000000000001</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>42551</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>1725.1</v>
+        <v>1480.7</v>
       </c>
       <c r="U36">
-        <v>281.60000000000002</v>
+        <v>287.39999999999998</v>
       </c>
       <c r="V36">
-        <v>122.1</v>
+        <v>128.6</v>
       </c>
       <c r="W36">
-        <v>-36.9</v>
+        <v>-21</v>
       </c>
       <c r="X36">
-        <v>-48.5</v>
+        <v>-73.599999999999994</v>
       </c>
       <c r="Y36">
-        <v>39.9</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>-7.2</v>
+        <v>-54.8</v>
       </c>
       <c r="AA36">
-        <v>102.1</v>
+        <v>87.1</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>42643</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>87.3</v>
+        <v>83.2</v>
       </c>
       <c r="D37">
-        <v>728.2</v>
+        <v>683.9</v>
       </c>
       <c r="E37">
-        <v>614.1</v>
+        <v>517.29999999999995</v>
       </c>
       <c r="F37">
-        <v>284.2</v>
+        <v>283.3</v>
       </c>
       <c r="G37">
-        <v>1504.4</v>
+        <v>1507.6</v>
       </c>
       <c r="H37">
-        <v>3067.9</v>
+        <v>2824.4</v>
       </c>
       <c r="I37">
-        <v>483.1</v>
+        <v>455.8</v>
       </c>
       <c r="J37">
-        <v>312.39999999999998</v>
+        <v>328.9</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3713,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>730.4</v>
+        <v>682.1</v>
       </c>
       <c r="O37">
-        <v>1411.7</v>
+        <v>1298.8</v>
       </c>
       <c r="P37">
-        <v>371</v>
+        <v>336.2</v>
       </c>
       <c r="Q37">
-        <v>-62.2</v>
+        <v>-18.100000000000001</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>42643</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>1656.2</v>
+        <v>1525.6</v>
       </c>
       <c r="U37">
-        <v>219.4</v>
+        <v>269.3</v>
       </c>
       <c r="V37">
-        <v>136.30000000000001</v>
+        <v>108.5</v>
       </c>
       <c r="W37">
-        <v>-36</v>
+        <v>-21</v>
       </c>
       <c r="X37">
-        <v>-174.7</v>
+        <v>16.3</v>
       </c>
       <c r="Y37">
-        <v>39.6</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>-10</v>
+        <v>-31.4</v>
       </c>
       <c r="AA37">
-        <v>87.3</v>
+        <v>83.2</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>42735</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>91.3</v>
+        <v>82.7</v>
       </c>
       <c r="D38">
-        <v>750.9</v>
+        <v>698.1</v>
       </c>
       <c r="E38">
-        <v>589.5</v>
+        <v>518.70000000000005</v>
       </c>
       <c r="F38">
-        <v>295</v>
+        <v>289.60000000000002</v>
       </c>
       <c r="G38">
-        <v>1500.4</v>
+        <v>1562</v>
       </c>
       <c r="H38">
-        <v>3058</v>
+        <v>2891</v>
       </c>
       <c r="I38">
-        <v>509.6</v>
+        <v>528.6</v>
       </c>
       <c r="J38">
-        <v>277.2</v>
+        <v>316.39999999999998</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,78 +3796,78 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>766.5</v>
+        <v>765.6</v>
       </c>
       <c r="O38">
-        <v>1391.2</v>
+        <v>1375.7</v>
       </c>
       <c r="P38">
-        <v>334.7</v>
+        <v>323.60000000000002</v>
       </c>
       <c r="Q38">
-        <v>154.6</v>
+        <v>61.1</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>42735</v>
       </c>
       <c r="S38">
-        <v>15100</v>
+        <v>15500</v>
       </c>
       <c r="T38">
-        <v>1666.8</v>
+        <v>1515.3</v>
       </c>
       <c r="U38">
-        <v>374</v>
+        <v>330.4</v>
       </c>
       <c r="V38">
-        <v>176.2</v>
+        <v>183</v>
       </c>
       <c r="W38">
-        <v>-39.200000000000003</v>
+        <v>-21</v>
       </c>
       <c r="X38">
-        <v>-131.30000000000001</v>
+        <v>-68.2</v>
       </c>
       <c r="Y38">
-        <v>38.700000000000003</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>123.8</v>
+        <v>-31.4</v>
       </c>
       <c r="AA38">
-        <v>91.3</v>
+        <v>82.7</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>42825</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>51.7</v>
+        <v>87.7</v>
       </c>
       <c r="D39">
-        <v>636.9</v>
+        <v>740</v>
       </c>
       <c r="E39">
-        <v>524</v>
+        <v>584.1</v>
       </c>
       <c r="F39">
-        <v>239.5</v>
+        <v>300.89999999999998</v>
       </c>
       <c r="G39">
-        <v>1442.5</v>
+        <v>1605.5</v>
       </c>
       <c r="H39">
-        <v>2983</v>
+        <v>2940.2</v>
       </c>
       <c r="I39">
-        <v>442</v>
+        <v>493.5</v>
       </c>
       <c r="J39">
-        <v>335.6</v>
+        <v>362.2</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3843,78 +3879,78 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>699.1</v>
+        <v>720.5</v>
       </c>
       <c r="O39">
-        <v>1366.7</v>
+        <v>1373.8</v>
       </c>
       <c r="P39">
-        <v>391.2</v>
+        <v>369.4</v>
       </c>
       <c r="Q39">
-        <v>42.1</v>
+        <v>-37</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>42825</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>1616.3</v>
+        <v>1566.4</v>
       </c>
       <c r="U39">
-        <v>416.1</v>
+        <v>293.39999999999998</v>
       </c>
       <c r="V39">
-        <v>54.1</v>
+        <v>-11.5</v>
       </c>
       <c r="W39">
-        <v>-39</v>
+        <v>-24.4</v>
       </c>
       <c r="X39">
-        <v>-38.4</v>
+        <v>-7.6</v>
       </c>
       <c r="Y39">
-        <v>37.299999999999997</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>39.200000000000003</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="AA39">
-        <v>51.7</v>
+        <v>87.7</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>42916</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>67.8</v>
+        <v>92.4</v>
       </c>
       <c r="D40">
-        <v>663.9</v>
+        <v>738.2</v>
       </c>
       <c r="E40">
-        <v>515.9</v>
+        <v>566.79999999999995</v>
       </c>
       <c r="F40">
-        <v>247.5</v>
+        <v>304.2</v>
       </c>
       <c r="G40">
-        <v>1444.4</v>
+        <v>1640.3</v>
       </c>
       <c r="H40">
-        <v>2984.2</v>
+        <v>2984</v>
       </c>
       <c r="I40">
-        <v>435.7</v>
+        <v>493.1</v>
       </c>
       <c r="J40">
-        <v>274.3</v>
+        <v>367.7</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +3962,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>735.4</v>
+        <v>705.8</v>
       </c>
       <c r="O40">
-        <v>1326.1</v>
+        <v>1370.3</v>
       </c>
       <c r="P40">
-        <v>330.1</v>
+        <v>375.1</v>
       </c>
       <c r="Q40">
-        <v>26.6</v>
+        <v>13.2</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>42916</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>1658.1</v>
+        <v>1613.7</v>
       </c>
       <c r="U40">
-        <v>442.7</v>
+        <v>306.60000000000002</v>
       </c>
       <c r="V40">
-        <v>125.2</v>
+        <v>84.7</v>
       </c>
       <c r="W40">
-        <v>-38.799999999999997</v>
+        <v>-24.2</v>
       </c>
       <c r="X40">
-        <v>-96.4</v>
+        <v>-53.2</v>
       </c>
       <c r="Y40">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>9.8000000000000007</v>
+        <v>1.2</v>
       </c>
       <c r="AA40">
-        <v>67.8</v>
+        <v>92.4</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>43008</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>105.4</v>
+        <v>93.7</v>
       </c>
       <c r="D41">
-        <v>760</v>
+        <v>749.9</v>
       </c>
       <c r="E41">
-        <v>572.9</v>
+        <v>587.1</v>
       </c>
       <c r="F41">
-        <v>297.10000000000002</v>
+        <v>305</v>
       </c>
       <c r="G41">
-        <v>1430.3</v>
+        <v>1698.1</v>
       </c>
       <c r="H41">
-        <v>2971.1</v>
+        <v>3104.6</v>
       </c>
       <c r="I41">
-        <v>516.9</v>
+        <v>500.1</v>
       </c>
       <c r="J41">
-        <v>107.1</v>
+        <v>442.2</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4045,1124 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>805.9</v>
+        <v>731.7</v>
       </c>
       <c r="O41">
-        <v>1224</v>
+        <v>1438.7</v>
       </c>
       <c r="P41">
-        <v>159.9</v>
+        <v>449.7</v>
       </c>
       <c r="Q41">
-        <v>-64.8</v>
+        <v>15.3</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>43008</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>1747.1</v>
+        <v>1665.9</v>
       </c>
       <c r="U41">
-        <v>377.9</v>
+        <v>321.89999999999998</v>
       </c>
       <c r="V41">
-        <v>151.1</v>
+        <v>77</v>
       </c>
       <c r="W41">
-        <v>-38.700000000000003</v>
+        <v>-24.2</v>
       </c>
       <c r="X41">
-        <v>-204.1</v>
+        <v>13.6</v>
       </c>
       <c r="Y41">
-        <v>34.9</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>0.1</v>
+        <v>-2.1</v>
       </c>
       <c r="AA41">
-        <v>105.4</v>
+        <v>93.7</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>43100</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>22.7</v>
+      </c>
+      <c r="D42">
+        <v>768.6</v>
+      </c>
+      <c r="E42">
+        <v>592.70000000000005</v>
+      </c>
+      <c r="F42">
+        <v>322.3</v>
+      </c>
+      <c r="G42">
+        <v>1766.9</v>
+      </c>
+      <c r="H42">
+        <v>3197.4</v>
+      </c>
+      <c r="I42">
+        <v>535</v>
+      </c>
+      <c r="J42">
+        <v>402.9</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>793.8</v>
+      </c>
+      <c r="O42">
+        <v>1552.5</v>
+      </c>
+      <c r="P42">
+        <v>410.4</v>
+      </c>
+      <c r="Q42">
+        <v>24.7</v>
+      </c>
+      <c r="R42">
+        <v>43100</v>
+      </c>
+      <c r="S42">
+        <v>16100</v>
+      </c>
+      <c r="T42">
+        <v>1644.9</v>
+      </c>
+      <c r="U42">
+        <v>346.6</v>
+      </c>
+      <c r="V42">
+        <v>176.2</v>
+      </c>
+      <c r="W42">
+        <v>-24.1</v>
+      </c>
+      <c r="X42">
+        <v>-104.9</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>-18.8</v>
+      </c>
+      <c r="AA42">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>98.8</v>
+      </c>
+      <c r="D43">
+        <v>788</v>
+      </c>
+      <c r="E43">
+        <v>638.79999999999995</v>
+      </c>
+      <c r="F43">
+        <v>321.5</v>
+      </c>
+      <c r="G43">
+        <v>1669.1</v>
+      </c>
+      <c r="H43">
+        <v>3106.9</v>
+      </c>
+      <c r="I43">
+        <v>522.1</v>
+      </c>
+      <c r="J43">
+        <v>285.8</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-117.3</v>
+      </c>
+      <c r="N43">
+        <v>766.9</v>
+      </c>
+      <c r="O43">
+        <v>1398.5</v>
+      </c>
+      <c r="P43">
+        <v>293.2</v>
+      </c>
+      <c r="Q43">
+        <v>-104.7</v>
+      </c>
+      <c r="R43">
+        <v>43190</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>1708.4</v>
+      </c>
+      <c r="U43">
+        <v>241.9</v>
+      </c>
+      <c r="V43">
+        <v>43.2</v>
+      </c>
+      <c r="W43">
+        <v>-31</v>
+      </c>
+      <c r="X43">
+        <v>-182.8</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>52.2</v>
+      </c>
+      <c r="AA43">
+        <v>98.8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>114.5</v>
+      </c>
+      <c r="D44">
+        <v>833.3</v>
+      </c>
+      <c r="E44">
+        <v>644</v>
+      </c>
+      <c r="F44">
+        <v>341</v>
+      </c>
+      <c r="G44">
+        <v>1653.3</v>
+      </c>
+      <c r="H44">
+        <v>3085.3</v>
+      </c>
+      <c r="I44">
+        <v>532.79999999999995</v>
+      </c>
+      <c r="J44">
+        <v>245.4</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>768.7</v>
+      </c>
+      <c r="O44">
+        <v>1355</v>
+      </c>
+      <c r="P44">
+        <v>248.1</v>
+      </c>
+      <c r="Q44">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="R44">
+        <v>43281</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>1730.3</v>
+      </c>
+      <c r="U44">
+        <v>260</v>
+      </c>
+      <c r="V44">
+        <v>130</v>
+      </c>
+      <c r="W44">
+        <v>-30.8</v>
+      </c>
+      <c r="X44">
+        <v>-111.1</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>21.4</v>
+      </c>
+      <c r="AA44">
+        <v>114.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>104.6</v>
+      </c>
+      <c r="D45">
+        <v>754.1</v>
+      </c>
+      <c r="E45">
+        <v>606.6</v>
+      </c>
+      <c r="F45">
+        <v>306</v>
+      </c>
+      <c r="G45">
+        <v>1598.7</v>
+      </c>
+      <c r="H45">
+        <v>3025.2</v>
+      </c>
+      <c r="I45">
+        <v>508</v>
+      </c>
+      <c r="J45">
+        <v>193.3</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>738.9</v>
+      </c>
+      <c r="O45">
+        <v>1269</v>
+      </c>
+      <c r="P45">
+        <v>193.3</v>
+      </c>
+      <c r="Q45">
+        <v>-27</v>
+      </c>
+      <c r="R45">
+        <v>43373</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>1756.2</v>
+      </c>
+      <c r="U45">
+        <v>233</v>
+      </c>
+      <c r="V45">
+        <v>116</v>
+      </c>
+      <c r="W45">
+        <v>-30.7</v>
+      </c>
+      <c r="X45">
+        <v>-123.3</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>-0.7</v>
+      </c>
+      <c r="AA45">
+        <v>104.6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>126.3</v>
+      </c>
+      <c r="D46">
+        <v>812.5</v>
+      </c>
+      <c r="E46">
+        <v>647.29999999999995</v>
+      </c>
+      <c r="F46">
+        <v>337</v>
+      </c>
+      <c r="G46">
+        <v>1638.5</v>
+      </c>
+      <c r="H46">
+        <v>3071.5</v>
+      </c>
+      <c r="I46">
+        <v>543.79999999999995</v>
+      </c>
+      <c r="J46">
+        <v>221.4</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>785.3</v>
+      </c>
+      <c r="O46">
+        <v>1354.5</v>
+      </c>
+      <c r="P46">
+        <v>221.4</v>
+      </c>
+      <c r="Q46">
+        <v>26.7</v>
+      </c>
+      <c r="R46">
+        <v>43465</v>
+      </c>
+      <c r="S46">
+        <v>16300</v>
+      </c>
+      <c r="T46">
+        <v>1717</v>
+      </c>
+      <c r="U46">
+        <v>259.7</v>
+      </c>
+      <c r="V46">
+        <v>159.69999999999999</v>
+      </c>
+      <c r="W46">
+        <v>-37.6</v>
+      </c>
+      <c r="X46">
+        <v>-105.9</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>-0.4</v>
+      </c>
+      <c r="AA46">
+        <v>126.3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>89.3</v>
+      </c>
+      <c r="D47">
+        <v>748.2</v>
+      </c>
+      <c r="E47">
+        <v>658.8</v>
+      </c>
+      <c r="F47">
+        <v>292.8</v>
+      </c>
+      <c r="G47">
+        <v>1658.1</v>
+      </c>
+      <c r="H47">
+        <v>3143.5</v>
+      </c>
+      <c r="I47">
+        <v>492.4</v>
+      </c>
+      <c r="J47">
+        <v>277.60000000000002</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>737.2</v>
+      </c>
+      <c r="O47">
+        <v>1394.3</v>
+      </c>
+      <c r="P47">
+        <v>337.8</v>
+      </c>
+      <c r="Q47">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="R47">
+        <v>43555</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>1749.2</v>
+      </c>
+      <c r="U47">
+        <v>337.8</v>
+      </c>
+      <c r="V47">
+        <v>21.6</v>
+      </c>
+      <c r="W47">
+        <v>-37.1</v>
+      </c>
+      <c r="X47">
+        <v>-21.3</v>
+      </c>
+      <c r="Y47">
+        <v>41.1</v>
+      </c>
+      <c r="Z47">
+        <v>98.7</v>
+      </c>
+      <c r="AA47">
+        <v>89.3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>102.1</v>
+      </c>
+      <c r="D48">
+        <v>765.4</v>
+      </c>
+      <c r="E48">
+        <v>634.79999999999995</v>
+      </c>
+      <c r="F48">
+        <v>308.7</v>
+      </c>
+      <c r="G48">
+        <v>1596.6</v>
+      </c>
+      <c r="H48">
+        <v>3175.6</v>
+      </c>
+      <c r="I48">
+        <v>488.4</v>
+      </c>
+      <c r="J48">
+        <v>351.8</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>730.6</v>
+      </c>
+      <c r="O48">
+        <v>1450.5</v>
+      </c>
+      <c r="P48">
+        <v>410.5</v>
+      </c>
+      <c r="Q48">
+        <v>-56.2</v>
+      </c>
+      <c r="R48">
+        <v>43646</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>1725.1</v>
+      </c>
+      <c r="U48">
+        <v>281.60000000000002</v>
+      </c>
+      <c r="V48">
+        <v>122.1</v>
+      </c>
+      <c r="W48">
+        <v>-36.9</v>
+      </c>
+      <c r="X48">
+        <v>-48.5</v>
+      </c>
+      <c r="Y48">
+        <v>39.9</v>
+      </c>
+      <c r="Z48">
+        <v>-7.2</v>
+      </c>
+      <c r="AA48">
+        <v>102.1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>87.3</v>
+      </c>
+      <c r="D49">
+        <v>728.2</v>
+      </c>
+      <c r="E49">
+        <v>614.1</v>
+      </c>
+      <c r="F49">
+        <v>284.2</v>
+      </c>
+      <c r="G49">
+        <v>1504.4</v>
+      </c>
+      <c r="H49">
+        <v>3067.9</v>
+      </c>
+      <c r="I49">
+        <v>483.1</v>
+      </c>
+      <c r="J49">
+        <v>312.39999999999998</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>730.4</v>
+      </c>
+      <c r="O49">
+        <v>1411.7</v>
+      </c>
+      <c r="P49">
+        <v>371</v>
+      </c>
+      <c r="Q49">
+        <v>-62.2</v>
+      </c>
+      <c r="R49">
+        <v>43738</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>1656.2</v>
+      </c>
+      <c r="U49">
+        <v>219.4</v>
+      </c>
+      <c r="V49">
+        <v>136.30000000000001</v>
+      </c>
+      <c r="W49">
+        <v>-36</v>
+      </c>
+      <c r="X49">
+        <v>-174.7</v>
+      </c>
+      <c r="Y49">
+        <v>39.6</v>
+      </c>
+      <c r="Z49">
+        <v>-10</v>
+      </c>
+      <c r="AA49">
+        <v>87.3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>91.3</v>
+      </c>
+      <c r="D50">
+        <v>750.9</v>
+      </c>
+      <c r="E50">
+        <v>589.5</v>
+      </c>
+      <c r="F50">
+        <v>295</v>
+      </c>
+      <c r="G50">
+        <v>1500.4</v>
+      </c>
+      <c r="H50">
+        <v>3058</v>
+      </c>
+      <c r="I50">
+        <v>509.6</v>
+      </c>
+      <c r="J50">
+        <v>277.2</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>766.5</v>
+      </c>
+      <c r="O50">
+        <v>1391.2</v>
+      </c>
+      <c r="P50">
+        <v>334.7</v>
+      </c>
+      <c r="Q50">
+        <v>154.6</v>
+      </c>
+      <c r="R50">
+        <v>43830</v>
+      </c>
+      <c r="S50">
+        <v>15100</v>
+      </c>
+      <c r="T50">
+        <v>1666.8</v>
+      </c>
+      <c r="U50">
+        <v>374</v>
+      </c>
+      <c r="V50">
+        <v>176.2</v>
+      </c>
+      <c r="W50">
+        <v>-39.200000000000003</v>
+      </c>
+      <c r="X50">
+        <v>-131.30000000000001</v>
+      </c>
+      <c r="Y50">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="Z50">
+        <v>123.8</v>
+      </c>
+      <c r="AA50">
+        <v>91.3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>51.7</v>
+      </c>
+      <c r="D51">
+        <v>636.9</v>
+      </c>
+      <c r="E51">
+        <v>524</v>
+      </c>
+      <c r="F51">
+        <v>239.5</v>
+      </c>
+      <c r="G51">
+        <v>1442.5</v>
+      </c>
+      <c r="H51">
+        <v>2983</v>
+      </c>
+      <c r="I51">
+        <v>442</v>
+      </c>
+      <c r="J51">
+        <v>335.6</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>699.1</v>
+      </c>
+      <c r="O51">
+        <v>1366.7</v>
+      </c>
+      <c r="P51">
+        <v>391.2</v>
+      </c>
+      <c r="Q51">
+        <v>42.1</v>
+      </c>
+      <c r="R51">
+        <v>43921</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>1616.3</v>
+      </c>
+      <c r="U51">
+        <v>416.1</v>
+      </c>
+      <c r="V51">
+        <v>54.1</v>
+      </c>
+      <c r="W51">
+        <v>-39</v>
+      </c>
+      <c r="X51">
+        <v>-38.4</v>
+      </c>
+      <c r="Y51">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="Z51">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="AA51">
+        <v>51.7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>67.8</v>
+      </c>
+      <c r="D52">
+        <v>663.9</v>
+      </c>
+      <c r="E52">
+        <v>515.9</v>
+      </c>
+      <c r="F52">
+        <v>247.5</v>
+      </c>
+      <c r="G52">
+        <v>1444.4</v>
+      </c>
+      <c r="H52">
+        <v>2984.2</v>
+      </c>
+      <c r="I52">
+        <v>435.7</v>
+      </c>
+      <c r="J52">
+        <v>274.3</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>735.4</v>
+      </c>
+      <c r="O52">
+        <v>1326.1</v>
+      </c>
+      <c r="P52">
+        <v>330.1</v>
+      </c>
+      <c r="Q52">
+        <v>26.6</v>
+      </c>
+      <c r="R52">
+        <v>44012</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>1658.1</v>
+      </c>
+      <c r="U52">
+        <v>442.7</v>
+      </c>
+      <c r="V52">
+        <v>125.2</v>
+      </c>
+      <c r="W52">
+        <v>-38.799999999999997</v>
+      </c>
+      <c r="X52">
+        <v>-96.4</v>
+      </c>
+      <c r="Y52">
+        <v>37.5</v>
+      </c>
+      <c r="Z52">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="AA52">
+        <v>67.8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>105.4</v>
+      </c>
+      <c r="D53">
+        <v>760</v>
+      </c>
+      <c r="E53">
+        <v>572.9</v>
+      </c>
+      <c r="F53">
+        <v>297.10000000000002</v>
+      </c>
+      <c r="G53">
+        <v>1430.3</v>
+      </c>
+      <c r="H53">
+        <v>2971.1</v>
+      </c>
+      <c r="I53">
+        <v>516.9</v>
+      </c>
+      <c r="J53">
+        <v>107.1</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>805.9</v>
+      </c>
+      <c r="O53">
+        <v>1224</v>
+      </c>
+      <c r="P53">
+        <v>159.9</v>
+      </c>
+      <c r="Q53">
+        <v>-64.8</v>
+      </c>
+      <c r="R53">
+        <v>44104</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>1747.1</v>
+      </c>
+      <c r="U53">
+        <v>377.9</v>
+      </c>
+      <c r="V53">
+        <v>151.1</v>
+      </c>
+      <c r="W53">
+        <v>-38.700000000000003</v>
+      </c>
+      <c r="X53">
+        <v>-204.1</v>
+      </c>
+      <c r="Y53">
+        <v>34.9</v>
+      </c>
+      <c r="Z53">
+        <v>0.1</v>
+      </c>
+      <c r="AA53">
+        <v>105.4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
         <v>120</v>
       </c>
-      <c r="D42">
+      <c r="D54">
         <v>834.5</v>
       </c>
-      <c r="E42">
+      <c r="E54">
         <v>585</v>
       </c>
-      <c r="F42">
+      <c r="F54">
         <v>324.10000000000002</v>
       </c>
-      <c r="G42">
+      <c r="G54">
         <v>1618</v>
       </c>
-      <c r="H42">
+      <c r="H54">
         <v>3160.7</v>
       </c>
-      <c r="I42">
+      <c r="I54">
         <v>595.20000000000005</v>
       </c>
-      <c r="J42">
+      <c r="J54">
         <v>106.4</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
         <v>886.3</v>
       </c>
-      <c r="O42">
+      <c r="O54">
         <v>1312.4</v>
       </c>
-      <c r="P42">
+      <c r="P54">
         <v>158.69999999999999</v>
       </c>
-      <c r="Q42">
+      <c r="Q54">
         <v>195.2</v>
       </c>
-      <c r="R42">
+      <c r="R54">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S54">
         <v>13900</v>
       </c>
-      <c r="T42">
+      <c r="T54">
         <v>1848.3</v>
       </c>
-      <c r="U42">
+      <c r="U54">
         <v>573.1</v>
       </c>
-      <c r="V42">
+      <c r="V54">
         <v>231.7</v>
       </c>
-      <c r="W42">
+      <c r="W54">
         <v>-42.2</v>
       </c>
-      <c r="X42">
+      <c r="X54">
         <v>-35.9</v>
       </c>
-      <c r="Y42">
+      <c r="Y54">
         <v>34.4</v>
       </c>
-      <c r="Z42">
+      <c r="Z54">
         <v>19.5</v>
       </c>
-      <c r="AA42">
+      <c r="AA54">
         <v>120</v>
       </c>
     </row>
